--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.54</v>
+        <v>3.91</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.31</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>4.87</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.73</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.39</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,63 +949,63 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5.47</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.91</v>
+        <v>2.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.87</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>2.73</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Pardubice B</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.62</v>
+        <v>3.99</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>3.92</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.62</v>
+        <v>3.81</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-prepere/tbAyvSX2/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.79</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.83</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.94</v>
+        <v>4.48</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>3.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>4.62</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.91</v>
+        <v>3.79</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5.27</v>
+        <v>3.83</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.31</v>
+        <v>3.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Prepere</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.6</v>
+        <v>2.91</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.7</v>
+        <v>5.27</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.99</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>4.31</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.92</v>
+        <v>2.04</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.81</v>
+        <v>1.48</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-prepere/tbAyvSX2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,98 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-banik-most-sous/hYwV0nyo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>8</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/usti-nad-labem-prepere/rJGtJocT/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Pardubice B</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>3.79</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.48</v>
+        <v>3.94</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.37</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.62</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.79</v>
+        <v>2.91</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.83</v>
+        <v>5.27</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.91</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5.27</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.31</v>
+        <v>4.48</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.04</v>
+        <v>3.37</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.48</v>
+        <v>4.62</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.92</v>
+        <v>4.06</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.44</v>
+        <v>3.63</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.06</v>
+        <v>3.92</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.63</v>
+        <v>2.44</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.15</v>
+        <v>2.33</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.39</v>
+        <v>3.74</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.71</v>
+        <v>1.92</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.93</v>
+        <v>1.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.38</v>
+        <v>1.55</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.74</v>
+        <v>4.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>3.02</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.92</v>
+        <v>4.71</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,374 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/usti-nad-labem-prepere/rJGtJocT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.42708333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-brozany/23LLN9rb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.4375</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 08:34</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:09</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-zapy/lKNXK7SG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>FK Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/banik-most-sous-fk-ceska-lipa/0b38E55p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-teplice/WrDxKRsN/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.42</v>
+        <v>5.47</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.76</v>
+        <v>3.91</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.26</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.38</v>
+        <v>4.87</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.46</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.34</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.47</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.91</v>
+        <v>2.54</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>3.31</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.87</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>2.73</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Banik Most-Sous</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.69</v>
+        <v>2.24</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.68</v>
+        <v>2.66</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12/08/2023 14:40</t>
+          <t>12/08/2023 16:51</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.76</v>
+        <v>3.31</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.08</v>
+        <v>3.51</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12/08/2023 15:02</t>
+          <t>12/08/2023 16:51</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.69</v>
+        <v>2.64</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.02</v>
+        <v>2.36</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/08/2023 14:40</t>
+          <t>12/08/2023 16:51</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-chlumec-nad-cidlinou/48VMX8eN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-banik-most-sous/GnaujjBi/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.24</v>
+        <v>1.69</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.66</v>
+        <v>1.68</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12/08/2023 16:51</t>
+          <t>12/08/2023 14:40</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.31</v>
+        <v>3.76</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.51</v>
+        <v>4.08</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12/08/2023 16:51</t>
+          <t>12/08/2023 15:02</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.64</v>
+        <v>3.69</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.36</v>
+        <v>4.02</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12/08/2023 16:51</t>
+          <t>12/08/2023 14:40</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-banik-most-sous/GnaujjBi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-chlumec-nad-cidlinou/48VMX8eN/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.79</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.83</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.94</v>
+        <v>4.48</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>3.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>4.62</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.91</v>
+        <v>3.79</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5.27</v>
+        <v>3.83</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.31</v>
+        <v>3.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>2.91</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.55</v>
+        <v>5.27</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.48</v>
+        <v>4.31</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.37</v>
+        <v>2.04</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.62</v>
+        <v>1.48</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>25/08/2023 15:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5.81</v>
+        <v>3.51</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5.81</v>
+        <v>3.57</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>26/08/2023 15:01</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.76</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>3.12</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>25/08/2023 15:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-fk-ceska-lipa/zL9uwnm9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-mlada-boleslav/02gKV3uq/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.88</v>
+        <v>1.28</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.04</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 15:30</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.51</v>
+        <v>5.81</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.57</v>
+        <v>5.81</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 15:01</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.2</v>
+        <v>6.76</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.12</v>
+        <v>7</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 15:30</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-mlada-boleslav/02gKV3uq/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-fk-ceska-lipa/zL9uwnm9/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Banik Most-Sous</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.04</v>
+        <v>2.39</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>03/09/2023 01:42</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:10</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>03/09/2023 01:42</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:10</t>
+          <t>03/09/2023 09:47</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.16</v>
+        <v>2.49</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>03/09/2023 01:42</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 09:23</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 09:47</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.49</v>
+        <v>3.16</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 09:23</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Velvary</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 08:32</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.08</v>
+        <v>4.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Teplice B</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2.91</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.22</v>
+        <v>3.48</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 08:32</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.59</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
         <v>2.93</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>2</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.39</v>
+        <v>3.74</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.71</v>
+        <v>1.92</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.95</v>
+        <v>4.39</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.66</v>
+        <v>3.02</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.93</v>
+        <v>4.71</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,282 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-teplice/WrDxKRsN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45207.42708333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:11</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:04</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:11</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-liberec/tfKPMTc4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.42708333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav B</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-chlumec-nad-cidlinou/KvWGOkTi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.42708333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:07</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-slovan-velvary/ATOTLmDA/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Prepere</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.99</v>
+        <v>3.62</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.25</v>
+        <v>4.48</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.92</v>
+        <v>3.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.81</v>
+        <v>4.62</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 09:11</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-prepere/tbAyvSX2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Pardubice B</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>3.79</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.48</v>
+        <v>3.94</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.37</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.62</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.79</v>
+        <v>2.91</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.83</v>
+        <v>5.27</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.91</v>
+        <v>1.6</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5.27</v>
+        <v>1.7</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.04</v>
+        <v>3.92</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.48</v>
+        <v>3.81</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:11</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-prepere/tbAyvSX2/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.35</v>
+        <v>3.62</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 10:11</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>3.16</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.51</v>
+        <v>2.82</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 09:23</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:20</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:20</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
         <v>2.04</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>03/09/2023 10:10</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>03/09/2023 10:10</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>2.82</v>
-      </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 09:23</t>
+          <t>03/09/2023 08:20</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.77</v>
+        <v>2.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.13</v>
+        <v>2.19</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.33</v>
+        <v>3.73</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.63</v>
+        <v>4.35</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:11</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.04</v>
+        <v>2.51</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.06</v>
+        <v>3.92</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.63</v>
+        <v>2.44</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.15</v>
+        <v>2.33</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.92</v>
+        <v>4.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.44</v>
+        <v>3.63</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.95</v>
+        <v>4.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.66</v>
+        <v>3.02</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.93</v>
+        <v>4.71</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.39</v>
+        <v>3.95</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.02</v>
+        <v>2.66</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.71</v>
+        <v>2.93</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,282 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-slovan-velvary/ATOTLmDA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45213.4375</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:45</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:45</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:45</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>14/10/2023 10:28</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-pardubice/G6oex9ci/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FK Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>13/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>13/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>13/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-jablonec/vk2CDPKj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>13/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:18</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>13/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>13/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:18</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-zivanice/2Nm7Z6sA/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="N42" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>07/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>09/09/2023 10:08</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.35</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>07/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>09/09/2023 10:13</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>07/09/2023 22:42</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>5.01</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.63</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:13</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.01</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Teplice B</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5</v>
+        <v>2.91</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.22</v>
+        <v>3.48</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 08:32</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.59</v>
+        <v>2.08</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Velvary</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 08:32</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>4.59</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.39</v>
+        <v>3.74</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.71</v>
+        <v>1.92</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
         <v>2.93</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.95</v>
+        <v>4.39</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.66</v>
+        <v>3.02</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.93</v>
+        <v>4.71</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,466 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-zivanice/2Nm7Z6sA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45214.42708333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:11</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:13</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-hradec-kralove/GnFrGItk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45214.42708333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>13/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:05</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-kolin/fcpayTCc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45214.45833333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>13/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:17</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>13/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:18</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>13/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>15/10/2023 10:17</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/teplice-banik-most-sous/pnwCYQdG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45214.66666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav B</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45214.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>14/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.28</v>
+        <v>2.57</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 10:06</t>
+          <t>12/08/2023 10:14</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 10:06</t>
+          <t>12/08/2023 09:40</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 10:06</t>
+          <t>12/08/2023 10:14</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-jablonec/2qBcR6Yj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-usti-nad-labem/Uk3qkAQc/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.57</v>
+        <v>2.28</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 10:14</t>
+          <t>12/08/2023 10:06</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 09:40</t>
+          <t>12/08/2023 10:06</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 10:14</t>
+          <t>12/08/2023 10:06</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-usti-nad-labem/Uk3qkAQc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-jablonec/2qBcR6Yj/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Pardubice B</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.8</v>
+        <v>3.79</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>3.83</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.48</v>
+        <v>3.94</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.62</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.79</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.83</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.94</v>
+        <v>4.48</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>3.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>4.62</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.63</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:13</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.01</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="N43" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>07/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>09/09/2023 10:08</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>3.35</v>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>07/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>09/09/2023 10:13</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>07/09/2023 22:42</t>
-        </is>
-      </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>5.01</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Velvary</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>4</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 08:32</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.08</v>
+        <v>4.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Teplice B</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2.91</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.22</v>
+        <v>3.48</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 08:32</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.59</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.92</v>
+        <v>4.06</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.44</v>
+        <v>3.63</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.06</v>
+        <v>3.92</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.63</v>
+        <v>2.44</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.15</v>
+        <v>2.33</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.93</v>
+        <v>1.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.38</v>
+        <v>1.55</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.74</v>
+        <v>4.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>3.02</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.92</v>
+        <v>4.71</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>01/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>01/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Mlada Boleslav B</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>29/09/2023 21:42</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>01/10/2023 09:56</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>01/10/2023 09:56</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
       <c r="T71" t="n">
-        <v>2.93</v>
+        <v>1.92</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.39</v>
+        <v>3.95</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.02</v>
+        <v>2.66</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.71</v>
+        <v>2.93</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,374 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.42708333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-teplice/48ewx038/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45220.4375</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:15</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:15</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:15</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-usti-nad-labem/d6zIUHer/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:49</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:49</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:49</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/banik-most-sous-slovan-velvary/8tvMTyBl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45220.64583333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-prepere/vRmjZcmR/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.57</v>
+        <v>2.28</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.59</v>
+        <v>2.79</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 10:14</t>
+          <t>12/08/2023 10:06</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 09:40</t>
+          <t>12/08/2023 10:06</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 10:14</t>
+          <t>12/08/2023 10:06</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-usti-nad-labem/Uk3qkAQc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-jablonec/2qBcR6Yj/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.28</v>
+        <v>2.57</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 10:06</t>
+          <t>12/08/2023 10:14</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 10:06</t>
+          <t>12/08/2023 09:40</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 10:06</t>
+          <t>12/08/2023 10:14</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-jablonec/2qBcR6Yj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-usti-nad-labem/Uk3qkAQc/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.79</v>
+        <v>2.91</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.83</v>
+        <v>5.27</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.91</v>
+        <v>3.79</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5.27</v>
+        <v>3.83</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.91</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.31</v>
+        <v>3.94</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="N42" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>07/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>09/09/2023 10:08</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.35</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>07/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>09/09/2023 10:13</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>07/09/2023 22:42</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>5.01</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>09/09/2023 10:14</t>
+          <t>09/09/2023 10:08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.8</v>
+        <v>2.58</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.63</v>
+        <v>3.35</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:13</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.01</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:08</t>
+          <t>09/09/2023 10:14</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-mlada-boleslav/Ykn6uu97/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-chlumec-nad-cidlinou/zeQl4Oo8/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.06</v>
+        <v>3.92</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.63</v>
+        <v>2.44</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.15</v>
+        <v>2.33</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.92</v>
+        <v>4.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.44</v>
+        <v>3.63</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.62</v>
+        <v>3.78</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.72</v>
+        <v>4.03</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.47</v>
+        <v>3.8</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:47</t>
+          <t>15/10/2023 15:41</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.78</v>
+        <v>3.62</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,32 +8616,32 @@
         </is>
       </c>
       <c r="P89" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>3.72</v>
       </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>15/10/2023 15:47</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>4.03</v>
-      </c>
       <c r="S89" t="inlineStr">
         <is>
           <t>14/10/2023 03:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.8</v>
+        <v>4.47</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:47</t>
+          <t>15/10/2023 15:41</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,282 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-prepere/vRmjZcmR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:26</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:26</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:26</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:10</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>22/10/2023 10:12</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zapy/rafsyKIE/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.46</v>
+        <v>2.73</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.91</v>
+        <v>1.8</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5.27</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.31</v>
+        <v>4.48</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.04</v>
+        <v>3.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 22:44</t>
+          <t>18/08/2023 22:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>4.62</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 10:13</t>
+          <t>20/08/2023 10:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Pardubice B</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>3.79</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.48</v>
+        <v>3.94</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.37</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 22:42</t>
+          <t>20/08/2023 02:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.62</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>20/08/2023 10:12</t>
+          <t>20/08/2023 09:17</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-pardubice/jTVzuQ2j/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.79</v>
+        <v>2.91</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.83</v>
+        <v>5.27</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 02:12</t>
+          <t>18/08/2023 22:44</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20/08/2023 09:17</t>
+          <t>20/08/2023 10:13</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-zapy/UJUvvpId/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-usti-nad-labem/xMk0oSPM/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Teplice B</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5</v>
+        <v>2.91</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.28</v>
+        <v>3.41</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.22</v>
+        <v>3.48</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 08:32</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.59</v>
+        <v>2.08</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:26</t>
+          <t>09/09/2023 10:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Velvary</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.41</v>
+        <v>4.28</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 08:32</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>4.59</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 10:15</t>
+          <t>09/09/2023 10:26</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-slovan-velvary/zgoVqf0g/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-teplice/IHjQpzom/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>15/09/2023 21:42</t>
+          <t>15/09/2023 21:43</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.96</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>16/09/2023 14:26</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.55</v>
+        <v>3.77</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>15/09/2023 21:42</t>
+          <t>15/09/2023 21:43</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 08:17</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>3.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>15/09/2023 21:42</t>
+          <t>15/09/2023 21:43</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.08</v>
+        <v>5.05</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>16/09/2023 14:26</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-kolin/M9msshpC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-zivanice/2T4CdXqa/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:07</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>3.55</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>15/09/2023 21:42</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:45</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:07</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S54" t="inlineStr">
         <is>
           <t>15/09/2023 21:42</t>
         </is>
       </c>
-      <c r="P54" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>17/09/2023 09:50</t>
-        </is>
-      </c>
-      <c r="R54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>15/09/2023 21:42</t>
-        </is>
-      </c>
       <c r="T54" t="n">
-        <v>2.48</v>
+        <v>3.08</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 09:45</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-jablonec/rPyjuWEO/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-kolin/M9msshpC/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.7</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>15/09/2023 21:43</t>
+          <t>15/09/2023 21:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.51</v>
+        <v>2.22</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 14:26</t>
+          <t>17/09/2023 09:45</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>15/09/2023 21:43</t>
+          <t>15/09/2023 21:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.38</v>
+        <v>3.72</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17/09/2023 08:17</t>
+          <t>17/09/2023 09:50</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>15/09/2023 21:43</t>
+          <t>15/09/2023 21:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.05</v>
+        <v>2.48</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 14:26</t>
+          <t>17/09/2023 09:45</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-zivanice/2T4CdXqa/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-jablonec/rPyjuWEO/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.92</v>
+        <v>4.06</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.44</v>
+        <v>3.63</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.06</v>
+        <v>3.92</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.63</v>
+        <v>2.44</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.15</v>
+        <v>2.33</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.39</v>
+        <v>3.74</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.71</v>
+        <v>1.92</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.93</v>
+        <v>1.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.38</v>
+        <v>1.55</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.74</v>
+        <v>4.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>3.02</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.92</v>
+        <v>4.71</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2.78</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.36</v>
+        <v>2.63</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 10:11</t>
+          <t>08/10/2023 09:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 10:04</t>
+          <t>08/10/2023 09:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.12</v>
+        <v>2.51</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.59</v>
+        <v>2.34</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 10:11</t>
+          <t>08/10/2023 09:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-liberec/tfKPMTc4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-chlumec-nad-cidlinou/KvWGOkTi/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.31</v>
+        <v>3.61</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.63</v>
+        <v>4.91</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 09:59</t>
+          <t>08/10/2023 10:07</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.61</v>
+        <v>4.24</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 09:59</t>
+          <t>08/10/2023 10:12</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.51</v>
+        <v>1.73</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 09:59</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-chlumec-nad-cidlinou/KvWGOkTi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-slovan-velvary/ATOTLmDA/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>3.61</v>
+        <v>2.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4.91</v>
+        <v>2.36</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 10:07</t>
+          <t>08/10/2023 10:11</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.65</v>
+        <v>3.37</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.24</v>
+        <v>3.63</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>08/10/2023 10:12</t>
+          <t>08/10/2023 10:04</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.55</v>
+        <v>2.59</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 10:11</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-slovan-velvary/ATOTLmDA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-liberec/tfKPMTc4/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:47</t>
+          <t>15/10/2023 15:41</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.78</v>
+        <v>3.62</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,32 +8524,32 @@
         </is>
       </c>
       <c r="P88" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
         <v>3.72</v>
       </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>15/10/2023 15:47</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>4.03</v>
-      </c>
       <c r="S88" t="inlineStr">
         <is>
           <t>14/10/2023 03:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.8</v>
+        <v>4.47</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:47</t>
+          <t>15/10/2023 15:41</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.62</v>
+        <v>3.78</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.72</v>
+        <v>4.03</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.47</v>
+        <v>3.8</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.58</v>
+        <v>1.43</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:10</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.41</v>
+        <v>4.49</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.47</v>
+        <v>6.13</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:10</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.43</v>
+        <v>2.58</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:10</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.49</v>
+        <v>3.41</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>6.13</v>
+        <v>2.47</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:10</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,742 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zapy/rafsyKIE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45226.75</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:38</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/usti-nad-labem-pardubice/j5TQSeQf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45227.4375</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:23</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:23</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:23</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-banik-most-sous/UeSURFu1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.60416666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FK Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-hradec-kralove/bVWYQZf7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45227.60416666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-jablonec/xMVxQgAD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45228.42708333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:00</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-kolin/l0aeryQs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav B</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:00</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:00</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:00</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/teplice-mlada-boleslav/niDTnHHQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-zivanice/hUDPmc2K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-liberec/vR9LlwmE/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.46</v>
+        <v>2.73</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
         <v>2.93</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>2</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.39</v>
+        <v>3.74</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.71</v>
+        <v>1.92</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.95</v>
+        <v>4.39</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.66</v>
+        <v>3.02</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.93</v>
+        <v>4.71</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.78</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.63</v>
+        <v>2.36</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 09:59</t>
+          <t>08/10/2023 10:11</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 09:59</t>
+          <t>08/10/2023 10:04</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.51</v>
+        <v>2.12</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.34</v>
+        <v>2.59</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 09:59</t>
+          <t>08/10/2023 10:11</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-chlumec-nad-cidlinou/KvWGOkTi/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-liberec/tfKPMTc4/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>3</v>
       </c>
       <c r="J80" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>3.61</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S80" t="inlineStr">
         <is>
           <t>06/10/2023 21:42</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:07</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>06/10/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>08/10/2023 10:12</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>06/10/2023 21:42</t>
-        </is>
-      </c>
       <c r="T80" t="n">
-        <v>1.55</v>
+        <v>2.34</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 10:05</t>
+          <t>08/10/2023 09:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-slovan-velvary/ATOTLmDA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-chlumec-nad-cidlinou/KvWGOkTi/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>2.78</v>
+        <v>3.61</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.36</v>
+        <v>4.91</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/10/2023 10:11</t>
+          <t>08/10/2023 10:07</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.37</v>
+        <v>3.65</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.63</v>
+        <v>4.24</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>08/10/2023 10:04</t>
+          <t>08/10/2023 10:12</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.59</v>
+        <v>1.55</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/10/2023 10:11</t>
+          <t>08/10/2023 10:05</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-liberec/tfKPMTc4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-slovan-velvary/ATOTLmDA/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3.28</v>
+        <v>1.35</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.83</v>
+        <v>1.25</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 15:43</t>
+          <t>14/10/2023 00:18</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.6</v>
+        <v>4.66</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.91</v>
+        <v>5.64</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 15:43</t>
+          <t>14/10/2023 14:05</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.83</v>
+        <v>5.76</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.76</v>
+        <v>8.58</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 15:43</t>
+          <t>14/10/2023 00:18</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-jablonec/vk2CDPKj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-zivanice/2Nm7Z6sA/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.35</v>
+        <v>3.28</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.25</v>
+        <v>3.83</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 00:18</t>
+          <t>14/10/2023 15:43</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.66</v>
+        <v>3.6</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.64</v>
+        <v>3.91</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:05</t>
+          <t>14/10/2023 15:43</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.76</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.58</v>
+        <v>1.76</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 00:18</t>
+          <t>14/10/2023 15:43</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-zivanice/2Nm7Z6sA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-jablonec/vk2CDPKj/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.43</v>
+        <v>2.58</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:10</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.49</v>
+        <v>3.41</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>6.13</v>
+        <v>2.47</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:10</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Chlumec nad Cidlinou</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>2.62</v>
+        <v>4.4</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>22/10/2023 08:27</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:10</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.4</v>
+        <v>4.22</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>22/10/2023 08:27</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.45</v>
+        <v>1.61</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>22/10/2023 08:27</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.47</v>
+        <v>1.99</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:10</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zapy/rafsyKIE/</t>
         </is>
       </c>
     </row>
@@ -9221,30 +9221,30 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4.4</v>
+        <v>2.24</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>22/10/2023 08:27</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.25</v>
+        <v>1.43</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,15 +9252,15 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.22</v>
+        <v>3.6</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>22/10/2023 08:27</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.64</v>
+        <v>4.49</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,15 +9268,15 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.61</v>
+        <v>2.65</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>22/10/2023 08:27</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.99</v>
+        <v>6.13</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zapy/rafsyKIE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.13</v>
+        <v>1.79</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 14:17</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>8.109999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>6.44</v>
+        <v>3.43</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 14:17</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>11.95</v>
+        <v>3.61</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>9.550000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 14:17</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-zivanice/hUDPmc2K/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-liberec/vR9LlwmE/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,63 +9965,431 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-zivanice/hUDPmc2K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45234.42708333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:13</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:13</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/jablonec-prepere/82FdtFff/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45234.4375</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:00</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:11</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:11</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/kolin-pardubice/bi89wDvD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:48</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:48</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:48</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/banik-most-sous-zapy/Qc0e1GWJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>1.79</v>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:12</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>29/10/2023 14:21</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>29/10/2023 14:21</t>
-        </is>
-      </c>
-      <c r="R104" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>29/10/2023 14:21</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-liberec/vR9LlwmE/</t>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-usti-nad-labem/xr7DxXgJ/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.88</v>
+        <v>1.28</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.04</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>25/08/2023 15:30</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.51</v>
+        <v>5.81</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.57</v>
+        <v>5.81</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26/08/2023 15:01</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.2</v>
+        <v>6.76</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.12</v>
+        <v>7</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>25/08/2023 15:30</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-mlada-boleslav/02gKV3uq/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-fk-ceska-lipa/zL9uwnm9/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>25/08/2023 15:30</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.81</v>
+        <v>3.51</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5.81</v>
+        <v>3.57</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>26/08/2023 15:01</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.76</v>
+        <v>3.2</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>3.12</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>25/08/2023 15:30</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-fk-ceska-lipa/zL9uwnm9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-mlada-boleslav/02gKV3uq/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Banik Most-Sous</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.58</v>
+        <v>1.91</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17/09/2023 10:04</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.37</v>
+        <v>3.55</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.73</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>17/09/2023 10:04</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.26</v>
+        <v>3.09</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.35</v>
+        <v>3.08</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 10:04</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-banik-most-sous/AVPX3FiP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-kolin/M9msshpC/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Banik Most-Sous</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 10:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>3.73</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 10:04</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.08</v>
+        <v>2.35</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 10:04</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-kolin/M9msshpC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-banik-most-sous/AVPX3FiP/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,14 +6653,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.06</v>
+        <v>3.92</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.63</v>
+        <v>2.44</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.15</v>
+        <v>2.33</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>30/09/2023 15:42</t>
+          <t>30/09/2023 15:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.92</v>
+        <v>4.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.44</v>
+        <v>3.63</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.33</v>
+        <v>4.15</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:59</t>
+          <t>30/09/2023 15:42</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-zivanice/OdYg9AT4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-usti-nad-labem/jPi35SST/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>01/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>01/10/2023 10:06</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Mlada Boleslav B</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>29/09/2023 21:42</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>01/10/2023 09:56</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>01/10/2023 09:56</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
       <c r="T70" t="n">
-        <v>2.93</v>
+        <v>1.92</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>01/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>29/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
         <v>2.93</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>01/10/2023 10:06</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>29/09/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>1.92</v>
-      </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.35</v>
+        <v>3.28</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.25</v>
+        <v>3.83</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 00:18</t>
+          <t>14/10/2023 15:43</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.66</v>
+        <v>3.6</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>5.64</v>
+        <v>3.91</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:05</t>
+          <t>14/10/2023 15:43</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>5.76</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>8.58</v>
+        <v>1.76</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 00:18</t>
+          <t>14/10/2023 15:43</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-zivanice/2Nm7Z6sA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-jablonec/vk2CDPKj/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3.28</v>
+        <v>1.35</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.83</v>
+        <v>1.25</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 15:43</t>
+          <t>14/10/2023 00:18</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.6</v>
+        <v>4.66</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.91</v>
+        <v>5.64</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 15:43</t>
+          <t>14/10/2023 14:05</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.83</v>
+        <v>5.76</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.76</v>
+        <v>8.58</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 15:43</t>
+          <t>14/10/2023 00:18</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-jablonec/vk2CDPKj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-zivanice/2Nm7Z6sA/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.62</v>
+        <v>3.78</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.88</v>
+        <v>3.72</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.72</v>
+        <v>4.03</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.47</v>
+        <v>3.8</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>15/10/2023 15:41</t>
+          <t>15/10/2023 15:47</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:47</t>
+          <t>15/10/2023 15:41</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.78</v>
+        <v>3.62</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,32 +8616,32 @@
         </is>
       </c>
       <c r="P89" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>15/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>3.72</v>
       </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>15/10/2023 15:47</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>4.03</v>
-      </c>
       <c r="S89" t="inlineStr">
         <is>
           <t>14/10/2023 03:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.8</v>
+        <v>4.47</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>15/10/2023 15:47</t>
+          <t>15/10/2023 15:41</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-usti-nad-labem/MB0uHbRr/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-mlada-boleslav/lKq3zmS3/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.24</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.58</v>
+        <v>1.43</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:10</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.41</v>
+        <v>4.49</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:00</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>22/10/2023 08:26</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.47</v>
+        <v>6.13</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>22/10/2023 10:10</t>
+          <t>22/10/2023 10:12</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4.4</v>
+        <v>2.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>22/10/2023 08:27</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:10</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.22</v>
+        <v>3.4</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>22/10/2023 08:27</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:00</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.61</v>
+        <v>2.45</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>22/10/2023 08:27</t>
+          <t>22/10/2023 08:26</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.99</v>
+        <v>2.47</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>22/10/2023 10:12</t>
+          <t>22/10/2023 10:10</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zapy/rafsyKIE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-chlumec-nad-cidlinou/j57eDGQ7/</t>
         </is>
       </c>
     </row>
@@ -9221,30 +9221,30 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.24</v>
+        <v>4.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:27</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.43</v>
+        <v>3.25</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,15 +9252,15 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.6</v>
+        <v>4.22</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:27</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,15 +9268,15 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.65</v>
+        <v>1.61</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>22/10/2023 08:27</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>6.13</v>
+        <v>1.99</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-brozany/0zknzvYK/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zapy/rafsyKIE/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.04</v>
+        <v>1.41</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 14:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.57</v>
+        <v>4.81</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.62</v>
+        <v>4.5</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 14:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.17</v>
+        <v>5.66</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.41</v>
+        <v>5.48</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 14:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-hradec-kralove/bVWYQZf7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-jablonec/xMVxQgAD/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>3</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Jablonec B</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
       <c r="J100" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 14:21</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.81</v>
+        <v>3.57</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>4.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 14:21</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.66</v>
+        <v>3.17</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.48</v>
+        <v>3.41</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 14:21</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-jablonec/xMVxQgAD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-hradec-kralove/bVWYQZf7/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,374 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-usti-nad-labem/xr7DxXgJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>FK Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:52</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:52</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:20</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:20</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:52</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:52</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-fk-ceska-lipa/GSI4vgP6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:10</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:10</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:16</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:16</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:10</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:10</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-brozany/4laa0znQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:40</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:40</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:40</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:40</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:40</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:40</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-teplice/UBGhseul/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45235.42708333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav B</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:24</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:24</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:24</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>05/11/2023 08:24</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:28</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:28</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-slovan-velvary/2PE0uZ90/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,63 +10425,63 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1.43</v>
+        <v>4.87</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.43</v>
+        <v>4.87</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>05/11/2023 08:20</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 08:20</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>5.87</v>
+        <v>1.54</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 00:28</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.87</v>
+        <v>1.54</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 00:28</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-fk-ceska-lipa/GSI4vgP6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-slovan-velvary/2PE0uZ90/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,155 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>4.87</v>
+        <v>1.43</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>4.87</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.33</v>
+        <v>4.58</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>05/11/2023 08:20</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.33</v>
+        <v>4.58</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>05/11/2023 08:20</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.54</v>
+        <v>5.87</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 00:28</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.54</v>
+        <v>5.87</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>05/11/2023 00:28</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-slovan-velvary/2PE0uZ90/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-fk-ceska-lipa/GSI4vgP6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>10/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/usti-nad-labem-banik-most-sous/xdnniW8C/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>5.47</v>
+        <v>2.42</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.91</v>
+        <v>2.76</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>3.26</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.87</v>
+        <v>3.38</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>2.46</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>06/08/2023 01:42</t>
+          <t>04/08/2023 22:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>2.34</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 09:35</t>
+          <t>06/08/2023 09:17</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Prepere</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.54</v>
+        <v>3.91</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.31</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>4.87</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.73</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>04/08/2023 22:42</t>
+          <t>06/08/2023 01:42</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.39</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 10:12</t>
+          <t>06/08/2023 09:35</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-slovan-velvary/tGsGETlo/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Prepere</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.46</v>
+        <v>2.73</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 09:17</t>
+          <t>06/08/2023 10:12</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-zapy/rLLbwDRo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-prepere/MBK2xXth/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>25/08/2023 15:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5.81</v>
+        <v>3.51</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5.81</v>
+        <v>3.57</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>26/08/2023 15:01</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.76</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>26/08/2023 14:13</t>
+          <t>25/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>3.12</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>26/08/2023 16:51</t>
+          <t>25/08/2023 15:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-fk-ceska-lipa/zL9uwnm9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-mlada-boleslav/02gKV3uq/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.88</v>
+        <v>1.28</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.04</v>
+        <v>1.3</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>25/08/2023 15:30</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.51</v>
+        <v>5.81</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.57</v>
+        <v>5.81</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26/08/2023 15:01</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.2</v>
+        <v>6.76</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>25/08/2023 05:12</t>
+          <t>26/08/2023 14:13</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.12</v>
+        <v>7</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>25/08/2023 15:30</t>
+          <t>26/08/2023 16:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-mlada-boleslav/02gKV3uq/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-fk-ceska-lipa/zL9uwnm9/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Pardubice B</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.39</v>
+        <v>2.04</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/09/2023 09:47</t>
+          <t>03/09/2023 10:10</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.49</v>
+        <v>3.16</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>03/09/2023 01:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/09/2023 10:00</t>
+          <t>03/09/2023 09:23</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pardubice B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:20</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:20</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>01/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
         <v>2.04</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>03/09/2023 10:10</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>03/09/2023 10:10</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>03/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>2.82</v>
-      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 09:23</t>
+          <t>03/09/2023 08:20</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-pardubice/YR3JlqnL/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.77</v>
+        <v>2.08</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.13</v>
+        <v>2.19</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.33</v>
+        <v>3.73</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.63</v>
+        <v>4.35</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:11</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/09/2023 22:42</t>
+          <t>01/09/2023 22:46</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.04</v>
+        <v>2.51</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 08:20</t>
+          <t>03/09/2023 10:12</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-zivanice/fy5FkPWE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Banik Most-Sous</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Usti nad Labem</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.19</v>
+        <v>2.67</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.73</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:11</t>
+          <t>03/09/2023 09:47</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>01/09/2023 22:46</t>
+          <t>01/09/2023 22:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>03/09/2023 10:12</t>
+          <t>03/09/2023 10:00</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-usti-nad-labem/QPrbs1ve/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-banik-most-sous/SEYIj5H8/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>15/09/2023 21:43</t>
+          <t>15/09/2023 21:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16/09/2023 14:26</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.77</v>
+        <v>3.55</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>15/09/2023 21:43</t>
+          <t>15/09/2023 21:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.38</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>17/09/2023 08:17</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>15/09/2023 21:43</t>
+          <t>15/09/2023 21:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.05</v>
+        <v>3.08</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>16/09/2023 14:26</t>
+          <t>17/09/2023 10:07</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-zivanice/2T4CdXqa/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-kolin/M9msshpC/</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Banik Most-Sous</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 10:04</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>3.73</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 10:04</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.08</v>
+        <v>2.35</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>17/09/2023 10:07</t>
+          <t>17/09/2023 10:04</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-kolin/M9msshpC/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-banik-most-sous/AVPX3FiP/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:04</t>
+          <t>17/09/2023 09:45</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.37</v>
+        <v>3.57</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:04</t>
+          <t>17/09/2023 09:50</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:04</t>
+          <t>17/09/2023 09:45</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-banik-most-sous/AVPX3FiP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-jablonec/rPyjuWEO/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>1.7</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>15/09/2023 21:42</t>
+          <t>15/09/2023 21:43</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.22</v>
+        <v>1.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:45</t>
+          <t>16/09/2023 14:26</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>15/09/2023 21:42</t>
+          <t>15/09/2023 21:43</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.72</v>
+        <v>4.38</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:50</t>
+          <t>17/09/2023 08:17</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>15/09/2023 21:42</t>
+          <t>15/09/2023 21:43</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.48</v>
+        <v>5.05</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 09:45</t>
+          <t>16/09/2023 14:26</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-jablonec/rPyjuWEO/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-zivanice/2T4CdXqa/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.95</v>
+        <v>4.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.66</v>
+        <v>3.02</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.93</v>
+        <v>4.71</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>01/10/2023 09:56</t>
+          <t>01/10/2023 10:06</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.39</v>
+        <v>3.95</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.02</v>
+        <v>2.66</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.71</v>
+        <v>2.93</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>01/10/2023 10:06</t>
+          <t>01/10/2023 09:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-mlada-boleslav/WMy27lbH/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13/10/2023 21:43</t>
+          <t>13/10/2023 21:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>15/10/2023 10:11</t>
+          <t>15/10/2023 10:05</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.66</v>
+        <v>3.57</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>13/10/2023 21:43</t>
+          <t>13/10/2023 21:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.07</v>
+        <v>3.82</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>15/10/2023 10:13</t>
+          <t>15/10/2023 10:05</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.21</v>
+        <v>2.77</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>13/10/2023 21:43</t>
+          <t>13/10/2023 21:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>15/10/2023 10:13</t>
+          <t>15/10/2023 10:05</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-hradec-kralove/GnFrGItk/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-kolin/fcpayTCc/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13/10/2023 21:42</t>
+          <t>13/10/2023 21:43</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>15/10/2023 10:05</t>
+          <t>15/10/2023 10:11</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.57</v>
+        <v>4.66</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>13/10/2023 21:42</t>
+          <t>13/10/2023 21:43</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.82</v>
+        <v>4.07</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>15/10/2023 10:05</t>
+          <t>15/10/2023 10:13</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.77</v>
+        <v>5.21</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>13/10/2023 21:42</t>
+          <t>13/10/2023 21:43</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.87</v>
+        <v>3.32</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>15/10/2023 10:05</t>
+          <t>15/10/2023 10:13</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-kolin/fcpayTCc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-hradec-kralove/GnFrGItk/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Mlada Boleslav B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,63 +10425,63 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>4.87</v>
+        <v>1.99</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>05/11/2023 08:10</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>4.87</v>
+        <v>1.99</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>05/11/2023 08:10</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.33</v>
+        <v>3.49</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>05/11/2023 08:16</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>05/11/2023 08:24</t>
+          <t>05/11/2023 08:16</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>1.54</v>
+        <v>3.32</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>05/11/2023 00:28</t>
+          <t>05/11/2023 08:10</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.54</v>
+        <v>3.32</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>05/11/2023 00:28</t>
+          <t>05/11/2023 08:10</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-slovan-velvary/2PE0uZ90/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-brozany/4laa0znQ/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>Teplice B</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.99</v>
+        <v>1.53</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>05/11/2023 08:10</t>
+          <t>05/11/2023 08:40</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.99</v>
+        <v>1.53</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/11/2023 08:10</t>
+          <t>05/11/2023 08:40</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.49</v>
+        <v>4.46</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>05/11/2023 08:16</t>
+          <t>05/11/2023 08:40</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.49</v>
+        <v>4.46</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>05/11/2023 08:16</t>
+          <t>05/11/2023 08:40</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.32</v>
+        <v>4.79</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>05/11/2023 08:10</t>
+          <t>05/11/2023 08:40</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.32</v>
+        <v>4.79</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>05/11/2023 08:10</t>
+          <t>05/11/2023 08:40</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-brozany/4laa0znQ/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-teplice/UBGhseul/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Teplice B</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>05/11/2023 08:40</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>05/11/2023 08:40</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>05/11/2023 08:40</t>
+          <t>05/11/2023 08:20</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.46</v>
+        <v>4.58</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>05/11/2023 08:40</t>
+          <t>05/11/2023 08:20</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.79</v>
+        <v>5.87</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>05/11/2023 08:40</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.79</v>
+        <v>5.87</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>05/11/2023 08:40</t>
+          <t>04/11/2023 23:52</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-teplice/UBGhseul/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-fk-ceska-lipa/GSI4vgP6/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Mlada Boleslav B</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.43</v>
+        <v>4.87</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.43</v>
+        <v>4.87</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 08:20</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.58</v>
+        <v>4.33</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>05/11/2023 08:20</t>
+          <t>05/11/2023 08:24</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.87</v>
+        <v>1.54</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 00:28</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.87</v>
+        <v>1.54</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 23:52</t>
+          <t>05/11/2023 00:28</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-fk-ceska-lipa/GSI4vgP6/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/mlada-boleslav-slovan-velvary/2PE0uZ90/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,466 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/usti-nad-labem-banik-most-sous/xdnniW8C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45241.4375</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Prepere</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav B</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>10/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:04</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>10/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:04</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>10/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:04</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/prepere-mlada-boleslav/WIojjjOI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Velvary</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>7</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-hradec-kralove/2wfZgYOg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Brozany</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Kolin</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-kolin/8GfVfE9m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>FK Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Chlumec nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-chlumec-nad-cidlinou/pMkfkAwP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Zapy</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Jablonec B</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>11/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-jablonec/AVySeffs/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-b_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.93</v>
+        <v>1.93</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.38</v>
+        <v>1.55</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.74</v>
+        <v>4.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>3.02</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.92</v>
+        <v>4.71</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Jablonec B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.55</v>
+        <v>3.38</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.39</v>
+        <v>3.74</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.71</v>
+        <v>1.92</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-jablonec/6ySCPVDo/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/hradec-kralove-kolin/x0xb8UrB/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Liberec B</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13/10/2023 21:42</t>
+          <t>13/10/2023 21:43</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>15/10/2023 10:05</t>
+          <t>15/10/2023 10:11</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.57</v>
+        <v>4.66</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>13/10/2023 21:42</t>
+          <t>13/10/2023 21:43</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.82</v>
+        <v>4.07</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>15/10/2023 10:05</t>
+          <t>15/10/2023 10:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.77</v>
+        <v>5.21</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>13/10/2023 21:42</t>
+          <t>13/10/2023 21:43</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.87</v>
+        <v>3.32</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>15/10/2023 10:05</t>
+          <t>15/10/2023 10:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-kolin/fcpayTCc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-hradec-kralove/GnFrGItk/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Liberec B</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>13/10/2023 21:43</t>
+          <t>13/10/2023 21:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>15/10/2023 10:11</t>
+          <t>15/10/2023 10:05</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.66</v>
+        <v>3.57</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>13/10/2023 21:43</t>
+          <t>13/10/2023 21:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.07</v>
+        <v>3.82</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>15/10/2023 10:13</t>
+          <t>15/10/2023 10:05</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.21</v>
+        <v>2.77</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>13/10/2023 21:43</t>
+          <t>13/10/2023 21:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>15/10/2023 10:13</t>
+          <t>15/10/2023 10:05</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/chlumec-nad-cidlinou-hradec-kralove/GnFrGItk/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/liberec-kolin/fcpayTCc/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Hradec Kralove B</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>3</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Jablonec B</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 14:21</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.81</v>
+        <v>3.57</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 14:21</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.66</v>
+        <v>3.17</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:43</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.48</v>
+        <v>3.41</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 14:21</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-jablonec/xMVxQgAD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-hradec-kralove/bVWYQZf7/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Jablonec B</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.04</v>
+        <v>1.41</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>28/10/2023 14:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.57</v>
+        <v>4.81</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.62</v>
+        <v>4.5</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>28/10/2023 14:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.17</v>
+        <v>5.66</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:43</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.41</v>
+        <v>5.48</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>28/10/2023 14:21</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-hradec-kralove/bVWYQZf7/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-jablonec/xMVxQgAD/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Banik Most-Sous</t>
+          <t>Zivanice</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Zapy</t>
+          <t>Usti nad Labem</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.33</v>
+        <v>3.72</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.16</v>
+        <v>3.59</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.16</v>
+        <v>3.98</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.61</v>
+        <v>1.79</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.27</v>
+        <v>1.8</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>04/11/2023 13:48</t>
+          <t>04/11/2023 13:59</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/banik-most-sous-zapy/Qc0e1GWJ/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-usti-nad-labem/xr7DxXgJ/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Zivanice</t>
+          <t>Banik Most-Sous</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Usti nad Labem</t>
+          <t>Zapy</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>3.72</v>
+        <v>2.33</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.59</v>
+        <v>2.16</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.75</v>
+        <v>3.56</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.98</v>
+        <v>3.16</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>1.79</v>
+        <v>2.61</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.8</v>
+        <v>3.27</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:59</t>
+          <t>04/11/2023 13:48</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zivanice-usti-nad-labem/xr7DxXgJ/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/banik-most-sous-zapy/Qc0e1GWJ/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Velvary</t>
+          <t>Brozany</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Hradec Kralove B</t>
+          <t>Kolin</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.17</v>
+        <v>1.97</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.18</v>
+        <v>1.98</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>7</v>
+        <v>3.57</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>7.05</v>
+        <v>3.49</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="R115" t="n">
-        <v>9.869999999999999</v>
+        <v>3.18</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>10.53</v>
+        <v>3.41</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-hradec-kralove/2wfZgYOg/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-kolin/8GfVfE9m/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Brozany</t>
+          <t>FK Ceska Lipa</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Kolin</t>
+          <t>Chlumec nad Cidlinou</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>1.97</v>
+        <v>2.31</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.98</v>
+        <v>2.82</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:43</t>
+          <t>11/11/2023 13:42</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.49</v>
+        <v>3.76</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:43</t>
+          <t>11/11/2023 13:34</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.18</v>
+        <v>2.67</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.41</v>
+        <v>2.15</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:43</t>
+          <t>11/11/2023 13:42</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/brozany-kolin/8GfVfE9m/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-chlumec-nad-cidlinou/pMkfkAwP/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>FK Ceska Lipa</t>
+          <t>Velvary</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Chlumec nad Cidlinou</t>
+          <t>Hradec Kralove B</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.31</v>
+        <v>1.17</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.82</v>
+        <v>1.18</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11/11/2023 13:42</t>
+          <t>11/11/2023 13:43</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.41</v>
+        <v>7</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.76</v>
+        <v>7.05</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>11/11/2023 13:34</t>
+          <t>11/11/2023 13:43</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.67</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.15</v>
+        <v>10.53</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>11/11/2023 13:42</t>
+          <t>11/11/2023 13:43</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/fk-ceska-lipa-chlumec-nad-cidlinou/pMkfkAwP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/slovan-velvary-hradec-kralove/2wfZgYOg/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,190 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/zapy-jablonec/AVySeffs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.42708333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Pardubice B</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Zivanice</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:14</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/pardubice-zivanice/b5mrhCg6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>cfl-group-b</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45242.45833333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Teplice B</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Liberec B</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:27</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-b/teplice-liberec/tUhwghv0/</t>
         </is>
       </c>
     </row>
